--- a/src/test/resources/testdata/HrmsTestData.xlsx
+++ b/src/test/resources/testdata/HrmsTestData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="4590" windowHeight="5730" activeTab="1"/>
+    <workbookView windowWidth="9090" windowHeight="5730" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="AddEmployee" sheetId="2" r:id="rId2"/>
     <sheet name="Test" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:C3"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="173">
   <si>
     <t>Username</t>
   </si>
@@ -77,6 +78,465 @@
   </si>
   <si>
     <t>TestNG</t>
+  </si>
+  <si>
+    <t>emp_number</t>
+  </si>
+  <si>
+    <t>employee_id</t>
+  </si>
+  <si>
+    <t>emp_lastname</t>
+  </si>
+  <si>
+    <t>emp_firstname</t>
+  </si>
+  <si>
+    <t>emp_middle_name</t>
+  </si>
+  <si>
+    <t>emp_nick_name</t>
+  </si>
+  <si>
+    <t>emp_smoker</t>
+  </si>
+  <si>
+    <t>ethnic_race_code</t>
+  </si>
+  <si>
+    <t>emp_birthday</t>
+  </si>
+  <si>
+    <t>nation_code</t>
+  </si>
+  <si>
+    <t>emp_gender</t>
+  </si>
+  <si>
+    <t>emp_marital_status</t>
+  </si>
+  <si>
+    <t>emp_ssn_num</t>
+  </si>
+  <si>
+    <t>emp_sin_num</t>
+  </si>
+  <si>
+    <t>emp_other_id</t>
+  </si>
+  <si>
+    <t>emp_dri_lice_num</t>
+  </si>
+  <si>
+    <t>emp_dri_lice_exp_date</t>
+  </si>
+  <si>
+    <t>emp_military_service</t>
+  </si>
+  <si>
+    <t>emp_status</t>
+  </si>
+  <si>
+    <t>job_title_code</t>
+  </si>
+  <si>
+    <t>eeo_cat_code</t>
+  </si>
+  <si>
+    <t>work_station</t>
+  </si>
+  <si>
+    <t>emp_street1</t>
+  </si>
+  <si>
+    <t>emp_street2</t>
+  </si>
+  <si>
+    <t>city_code</t>
+  </si>
+  <si>
+    <t>coun_code</t>
+  </si>
+  <si>
+    <t>provin_code</t>
+  </si>
+  <si>
+    <t>emp_zipcode</t>
+  </si>
+  <si>
+    <t>emp_hm_telephone</t>
+  </si>
+  <si>
+    <t>emp_mobile</t>
+  </si>
+  <si>
+    <t>emp_work_telephone</t>
+  </si>
+  <si>
+    <t>emp_work_email</t>
+  </si>
+  <si>
+    <t>joined_date</t>
+  </si>
+  <si>
+    <t>emp_oth_email</t>
+  </si>
+  <si>
+    <t>termination_id</t>
+  </si>
+  <si>
+    <t>erep_sup_emp_number</t>
+  </si>
+  <si>
+    <t>erep_reporting_mode</t>
+  </si>
+  <si>
+    <t>4152</t>
+  </si>
+  <si>
+    <t>Albright</t>
+  </si>
+  <si>
+    <t>@Alesao!</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2020-02-01</t>
+  </si>
+  <si>
+    <t>4322</t>
+  </si>
+  <si>
+    <t>bourne</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>1981-07-09</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>t897986543</t>
+  </si>
+  <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>4347</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Abdullah</t>
+  </si>
+  <si>
+    <t>Mert</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1997-03-05</t>
+  </si>
+  <si>
+    <t>5842</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>Aqua</t>
+  </si>
+  <si>
+    <t>Manta</t>
+  </si>
+  <si>
+    <t>6075</t>
+  </si>
+  <si>
+    <t>nouaw</t>
+  </si>
+  <si>
+    <t>psaur</t>
+  </si>
+  <si>
+    <t>6076</t>
+  </si>
+  <si>
+    <t>6077</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Emp</t>
+  </si>
+  <si>
+    <t>6078</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>6079</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>6080</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>6081</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>1980-10-19</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>456-45-6789</t>
+  </si>
+  <si>
+    <t>9876</t>
+  </si>
+  <si>
+    <t>Nhkjkgkhgkg</t>
+  </si>
+  <si>
+    <t>2018-12-08</t>
+  </si>
+  <si>
+    <t>6082</t>
+  </si>
+  <si>
+    <t>06082A</t>
+  </si>
+  <si>
+    <t>Geysha</t>
+  </si>
+  <si>
+    <t>Trasha</t>
+  </si>
+  <si>
+    <t>Yeponomatievna</t>
+  </si>
+  <si>
+    <t>1990-07-29</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>6083</t>
+  </si>
+  <si>
+    <t>06083A</t>
+  </si>
+  <si>
+    <t>Obdolbasha</t>
+  </si>
+  <si>
+    <t>Anasha</t>
+  </si>
+  <si>
+    <t>Obkurievna</t>
+  </si>
+  <si>
+    <t>6084</t>
+  </si>
+  <si>
+    <t>06084A</t>
+  </si>
+  <si>
+    <t>Masha</t>
+  </si>
+  <si>
+    <t>Nasha</t>
+  </si>
+  <si>
+    <t>TreeRublyaevna</t>
+  </si>
+  <si>
+    <t>6085</t>
+  </si>
+  <si>
+    <t>06085A</t>
+  </si>
+  <si>
+    <t>6086</t>
+  </si>
+  <si>
+    <t>06086A</t>
+  </si>
+  <si>
+    <t>6087</t>
+  </si>
+  <si>
+    <t>06087A</t>
+  </si>
+  <si>
+    <t>6088</t>
+  </si>
+  <si>
+    <t>06088A</t>
+  </si>
+  <si>
+    <t>6089</t>
+  </si>
+  <si>
+    <t>06089A</t>
+  </si>
+  <si>
+    <t>6090</t>
+  </si>
+  <si>
+    <t>06090A</t>
+  </si>
+  <si>
+    <t>6091</t>
+  </si>
+  <si>
+    <t>06091A</t>
+  </si>
+  <si>
+    <t>6092</t>
+  </si>
+  <si>
+    <t>06092A</t>
+  </si>
+  <si>
+    <t>6093</t>
+  </si>
+  <si>
+    <t>06093A</t>
+  </si>
+  <si>
+    <t>6094</t>
+  </si>
+  <si>
+    <t>06094A</t>
+  </si>
+  <si>
+    <t>6095</t>
+  </si>
+  <si>
+    <t>06095A</t>
+  </si>
+  <si>
+    <t>6096</t>
+  </si>
+  <si>
+    <t>06096A</t>
+  </si>
+  <si>
+    <t>Vasha</t>
+  </si>
+  <si>
+    <t>Kasha</t>
+  </si>
+  <si>
+    <t>Pasha</t>
+  </si>
+  <si>
+    <t>6097</t>
+  </si>
+  <si>
+    <t>06097A</t>
+  </si>
+  <si>
+    <t>6098</t>
+  </si>
+  <si>
+    <t>06098A</t>
+  </si>
+  <si>
+    <t>6102</t>
+  </si>
+  <si>
+    <t>6103</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>Viet</t>
+  </si>
+  <si>
+    <t>6104</t>
+  </si>
+  <si>
+    <t>6105</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>6106</t>
+  </si>
+  <si>
+    <t>6107</t>
   </si>
 </sst>
 </file>
@@ -84,10 +544,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -114,14 +574,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,8 +626,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,6 +688,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -166,92 +710,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,7 +726,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,73 +786,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,13 +816,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,43 +882,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,25 +906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,6 +917,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,43 +959,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,25 +994,33 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,130 +1038,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,8 +1496,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="16.5714285714286" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.5714285714286" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
@@ -1088,15 +1548,15 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.4285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.1428571428571" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1149,7 +1609,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1183,4 +1643,2096 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:AL29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.1428571428571" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.28571428571429" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="7.57142857142857" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="8.42857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.42857142857143" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="12.8571428571429" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="6.57142857142857" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2"/>
+      <c r="S2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH3"/>
+      <c r="AI3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4"/>
+      <c r="S4" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" t="s">
+        <v>81</v>
+      </c>
+      <c r="X4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5"/>
+      <c r="S5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6"/>
+      <c r="S6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7"/>
+      <c r="S7" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8"/>
+      <c r="S8" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9"/>
+      <c r="S9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10"/>
+      <c r="S10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11"/>
+      <c r="S11" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+    </row>
+    <row r="12" spans="2:28">
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12" t="s">
+        <v>114</v>
+      </c>
+      <c r="S12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28">
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>61</v>
+      </c>
+      <c r="S13" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" t="s">
+        <v>121</v>
+      </c>
+      <c r="U13" t="s">
+        <v>122</v>
+      </c>
+      <c r="X13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28">
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>61</v>
+      </c>
+      <c r="S14" t="s">
+        <v>61</v>
+      </c>
+      <c r="T14" t="s">
+        <v>121</v>
+      </c>
+      <c r="U14" t="s">
+        <v>122</v>
+      </c>
+      <c r="X14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28">
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" t="s">
+        <v>120</v>
+      </c>
+      <c r="L15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S15" t="s">
+        <v>61</v>
+      </c>
+      <c r="T15" t="s">
+        <v>121</v>
+      </c>
+      <c r="U15" t="s">
+        <v>122</v>
+      </c>
+      <c r="X15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28">
+      <c r="B16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16" t="s">
+        <v>61</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>61</v>
+      </c>
+      <c r="S16" t="s">
+        <v>61</v>
+      </c>
+      <c r="T16" t="s">
+        <v>121</v>
+      </c>
+      <c r="U16" t="s">
+        <v>122</v>
+      </c>
+      <c r="X16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28">
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>61</v>
+      </c>
+      <c r="S17" t="s">
+        <v>61</v>
+      </c>
+      <c r="T17" t="s">
+        <v>121</v>
+      </c>
+      <c r="U17" t="s">
+        <v>122</v>
+      </c>
+      <c r="X17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28">
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" t="s">
+        <v>120</v>
+      </c>
+      <c r="L18" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>61</v>
+      </c>
+      <c r="S18" t="s">
+        <v>61</v>
+      </c>
+      <c r="T18" t="s">
+        <v>121</v>
+      </c>
+      <c r="U18" t="s">
+        <v>122</v>
+      </c>
+      <c r="X18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28">
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" t="s">
+        <v>120</v>
+      </c>
+      <c r="L19" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>61</v>
+      </c>
+      <c r="S19" t="s">
+        <v>61</v>
+      </c>
+      <c r="T19" t="s">
+        <v>121</v>
+      </c>
+      <c r="U19" t="s">
+        <v>122</v>
+      </c>
+      <c r="X19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28">
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" t="s">
+        <v>81</v>
+      </c>
+      <c r="N20" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>61</v>
+      </c>
+      <c r="S20" t="s">
+        <v>61</v>
+      </c>
+      <c r="T20" t="s">
+        <v>121</v>
+      </c>
+      <c r="U20" t="s">
+        <v>122</v>
+      </c>
+      <c r="X20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28">
+      <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" t="s">
+        <v>81</v>
+      </c>
+      <c r="N21" t="s">
+        <v>61</v>
+      </c>
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>61</v>
+      </c>
+      <c r="S21" t="s">
+        <v>61</v>
+      </c>
+      <c r="T21" t="s">
+        <v>121</v>
+      </c>
+      <c r="U21" t="s">
+        <v>122</v>
+      </c>
+      <c r="X21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28">
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" t="s">
+        <v>120</v>
+      </c>
+      <c r="L22" t="s">
+        <v>81</v>
+      </c>
+      <c r="N22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>61</v>
+      </c>
+      <c r="S22" t="s">
+        <v>61</v>
+      </c>
+      <c r="T22" t="s">
+        <v>121</v>
+      </c>
+      <c r="U22" t="s">
+        <v>122</v>
+      </c>
+      <c r="X22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28">
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" t="s">
+        <v>81</v>
+      </c>
+      <c r="N23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>61</v>
+      </c>
+      <c r="S23" t="s">
+        <v>61</v>
+      </c>
+      <c r="T23" t="s">
+        <v>121</v>
+      </c>
+      <c r="U23" t="s">
+        <v>122</v>
+      </c>
+      <c r="X23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28">
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" t="s">
+        <v>120</v>
+      </c>
+      <c r="L24" t="s">
+        <v>81</v>
+      </c>
+      <c r="N24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>61</v>
+      </c>
+      <c r="S24" t="s">
+        <v>61</v>
+      </c>
+      <c r="T24" t="s">
+        <v>121</v>
+      </c>
+      <c r="U24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28">
+      <c r="B25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" t="s">
+        <v>120</v>
+      </c>
+      <c r="L25" t="s">
+        <v>81</v>
+      </c>
+      <c r="N25" t="s">
+        <v>61</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>61</v>
+      </c>
+      <c r="S25" t="s">
+        <v>61</v>
+      </c>
+      <c r="T25" t="s">
+        <v>121</v>
+      </c>
+      <c r="U25" t="s">
+        <v>122</v>
+      </c>
+      <c r="X25" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28">
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" t="s">
+        <v>120</v>
+      </c>
+      <c r="L26" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>61</v>
+      </c>
+      <c r="S26" t="s">
+        <v>61</v>
+      </c>
+      <c r="T26" t="s">
+        <v>121</v>
+      </c>
+      <c r="U26" t="s">
+        <v>122</v>
+      </c>
+      <c r="X26" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28">
+      <c r="B27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" t="s">
+        <v>120</v>
+      </c>
+      <c r="L27" t="s">
+        <v>81</v>
+      </c>
+      <c r="N27" t="s">
+        <v>61</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>61</v>
+      </c>
+      <c r="S27" t="s">
+        <v>61</v>
+      </c>
+      <c r="T27" t="s">
+        <v>121</v>
+      </c>
+      <c r="U27" t="s">
+        <v>122</v>
+      </c>
+      <c r="X27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28">
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" t="s">
+        <v>120</v>
+      </c>
+      <c r="L28" t="s">
+        <v>81</v>
+      </c>
+      <c r="N28" t="s">
+        <v>61</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>61</v>
+      </c>
+      <c r="S28" t="s">
+        <v>61</v>
+      </c>
+      <c r="T28" t="s">
+        <v>121</v>
+      </c>
+      <c r="U28" t="s">
+        <v>122</v>
+      </c>
+      <c r="X28" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28">
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" t="s">
+        <v>120</v>
+      </c>
+      <c r="L29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N29" t="s">
+        <v>61</v>
+      </c>
+      <c r="O29" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>61</v>
+      </c>
+      <c r="S29" t="s">
+        <v>61</v>
+      </c>
+      <c r="T29" t="s">
+        <v>121</v>
+      </c>
+      <c r="U29" t="s">
+        <v>122</v>
+      </c>
+      <c r="X29" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>